--- a/модуль организации деятельности/Интегральный показатель эффективности.xlsx
+++ b/модуль организации деятельности/Интегральный показатель эффективности.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaitsev_ad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaitsev_ad\PycharmProjects\ERKNM\модуль организации деятельности\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,19 +82,10 @@
     <t>альтернатива: взять по количеству объектов</t>
   </si>
   <si>
-    <t>1 год</t>
-  </si>
-  <si>
-    <t>1 день</t>
-  </si>
-  <si>
     <t>% прироста согласованных прокуратурой плановых КНМ по сравнению с прошлым годом</t>
   </si>
   <si>
     <t>% охвата поднадзорных объектов запланированными профилактическими визитами</t>
-  </si>
-  <si>
-    <t>минимальный период наблюдения</t>
   </si>
   <si>
     <t>% охвата объектов запланированными плановыми КНМ</t>
@@ -151,9 +142,6 @@
   <si>
     <t>1. наличие экспертных заключений или результатов лабораторных исследований с показателями, аттритубы которых свидетельствуют о нарушении обязательных требований
 2. Акт мероприятия, имеющий аттрибуты нарушения обязательного требования с возможностью ссылки на экспертное заключение или результаты лабораторных исследований</t>
-  </si>
-  <si>
-    <t>отсутствие документов, несвоевременно составляемых в ходе проведения мероприятий и по их результатам с учетом продления/приостановления КНМ</t>
   </si>
   <si>
     <t>1. количество согласованных внеплановых КНМ из ЕРКНМ/ЕИАС(КНД)
@@ -235,9 +223,6 @@
 2. общее количество плановых КНМ из ЕРКНМ/ЕИАС(КНД)</t>
   </si>
   <si>
-    <t>Чем больше интегральный показатель, тем выше рейтинг</t>
-  </si>
-  <si>
     <t>1. Количество плановых контрольных (надзорных) мероприятий, проведенных с лабораторными и инструментальными исследованиями
 2. Общее количество плановых контрольных (надзорных) мероприятий</t>
   </si>
@@ -298,6 +283,22 @@
   </si>
   <si>
     <t>доля плановых КНМ, проведенных в установленный период, с учетом продления/приостановления, за исключением проверок с невозможностью проведения</t>
+  </si>
+  <si>
+    <t>Перечень предлагаемых показателей оценки эффективности организации контрольной (надзорной) деятельности</t>
+  </si>
+  <si>
+    <t>статические</t>
+  </si>
+  <si>
+    <t>группа показателей
+(статические/динамические)</t>
+  </si>
+  <si>
+    <t>динамические</t>
+  </si>
+  <si>
+    <t>доля мероприятий, документы которых своевременно составленны в период проведения мероприятий и по их результатам с учетом продления/приостановления КНМ за исключением мероприятий, проведение которых не представляется возможным</t>
   </si>
 </sst>
 </file>
@@ -324,7 +325,7 @@
     <font>
       <b/>
       <i/>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -340,7 +341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -363,11 +364,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -377,9 +415,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -398,6 +433,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,8 +728,8 @@
   </sheetPr>
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -694,80 +738,80 @@
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
     <col min="3" max="3" width="62.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="54.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+    <row r="2" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:21" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="10"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="9"/>
       <c r="T3" s="1">
         <f>66</f>
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -791,24 +835,24 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
@@ -832,22 +876,22 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="L6" s="1">
         <v>3</v>
@@ -870,25 +914,25 @@
         <v>0.12626262626262627</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="2:21" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>18</v>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="L7" s="1">
         <v>4</v>
@@ -911,23 +955,23 @@
         <v>0.1313131313131313</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="6"/>
+    <row r="8" spans="2:21" ht="225" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>18</v>
+      <c r="F8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="L8" s="1">
         <v>5</v>
@@ -951,24 +995,24 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>18</v>
+      <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="L9" s="1">
         <v>6</v>
@@ -992,24 +1036,24 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
+      <c r="B10" s="4"/>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>18</v>
+      <c r="F10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="L10" s="1">
         <v>7</v>
@@ -1033,22 +1077,22 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>17</v>
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="L11" s="1">
         <v>8</v>
@@ -1072,22 +1116,22 @@
       </c>
     </row>
     <row r="12" spans="2:21" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>43</v>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>17</v>
+      <c r="F12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="L12" s="1">
         <v>9</v>
@@ -1111,22 +1155,22 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>17</v>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>16</v>
@@ -1153,22 +1197,22 @@
       </c>
     </row>
     <row r="14" spans="2:21" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>23</v>
+      <c r="B14" s="4"/>
+      <c r="C14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>18</v>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="L14" s="1">
         <v>11</v>
@@ -1191,148 +1235,148 @@
         <v>2.5252525252525252E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>49</v>
+    <row r="15" spans="2:21" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>18</v>
+      <c r="F15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="150" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>50</v>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>18</v>
+      <c r="F19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>66</v>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>68</v>
+      <c r="F20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>70</v>
+      <c r="D22" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>18</v>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1342,27 +1386,27 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="10"/>
+      <c r="I26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <f>1*POWER(10,-3)</f>
         <v>1E-3</v>
       </c>
@@ -1380,7 +1424,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <f>9*POWER(10,-4)</f>
         <v>9.0000000000000008E-4</v>
       </c>
@@ -1398,7 +1442,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <f>9*POWER(10,-7)</f>
         <v>8.9999999999999996E-7</v>
       </c>
@@ -1416,8 +1460,8 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E30" s="1" t="s">
-        <v>24</v>
+      <c r="E30" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(H27:H29)</f>
@@ -1429,7 +1473,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B2:H2"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="L3:M3"/>

--- a/модуль организации деятельности/Интегральный показатель эффективности.xlsx
+++ b/модуль организации деятельности/Интегральный показатель эффективности.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$B$2:$H$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$B$3:$H$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>показатель</t>
   </si>
@@ -39,18 +39,12 @@
     <t>источник информации</t>
   </si>
   <si>
-    <t>% охвата объектов плановыми КНМ + запланированными обязательными профвизитами по ПП 336</t>
-  </si>
-  <si>
     <t>охват плановыми КНМ объектов ЧВР и ВР</t>
   </si>
   <si>
     <t>ЕИАС / ЕРКНМ</t>
   </si>
   <si>
-    <t>наличие отклонений в экспертном заключении, но отсутствие нарушений обязательных требований в акте со ссылкой на это заключение</t>
-  </si>
-  <si>
     <t>ЕИАС</t>
   </si>
   <si>
@@ -60,42 +54,16 @@
     <t>количество согласованных внеплановых КНМ/количество поданых внеплановых КНМ</t>
   </si>
   <si>
-    <t>% мероприятий с лабораторными исследованиями, имеющими отклонение от нормативов, являющееся фактом нарушения обязательных требований, указанных в качестве нарушений обязательных требований в акте проверки</t>
-  </si>
-  <si>
-    <t>доля объектов в РХС, в отношении которых запланированы мероприятия (КНМ и профвизиты)</t>
-  </si>
-  <si>
     <t>доля плановых КНМ, исключенных прокуратурой, решение по которым оспорено</t>
   </si>
   <si>
     <t>Количество согласованных плановых КНМ в текущем году/количество согласованных плановых КНМ в предыдущем году</t>
   </si>
   <si>
-    <t xml:space="preserve">отклонение отношения количества специалистов, осуществляющих надзор, к сумме показателей потенциального риска причинения вреда здоровью объектов, в отношении которых проводятся мероприятия, от среднего по Российской Федерации
-</t>
-  </si>
-  <si>
     <t>отклонение показателя от среднего по РФ (количество специалистов, осуществляющих надзор/сумма показателей потенциального риска причинения вреда здоровью объектов, в отношении которых проводятся мероприятия) если риск расчитывается по приложению 2, то показатель определяется исходя из риска в соответствии с п 1 приложения 1 ПП 1100</t>
   </si>
   <si>
     <t>альтернатива: взять по количеству объектов</t>
-  </si>
-  <si>
-    <t>% прироста согласованных прокуратурой плановых КНМ по сравнению с прошлым годом</t>
-  </si>
-  <si>
-    <t>% охвата поднадзорных объектов запланированными профилактическими визитами</t>
-  </si>
-  <si>
-    <t>% охвата объектов запланированными плановыми КНМ</t>
-  </si>
-  <si>
-    <t>1-(сумма ключевых показателей государственного контроля (надзора), отражающих уровень устранения риска(Кл.показ)/сумма показателей потенциального риска причинения вреда здоровью объектов контроля)
-Кл.показ:
-1. количество людей, заболевших инфекционными болезнями, за исключением хронических гепатитов, укусов, ослюнения животными, туберкулеза, сифилиса, гонококковой инфекции, ВИЧ-инфекции, острой респираторной вирусной инфекции, гриппа, пневмоний, на 100 тыс. населения
-2. количество людей, заболевших паразитарными болезнями, на 100 тыс. населения;
-3. количество людей, пострадавших при пищевых отравлениях, за исключением бытовых пищевых отравлений, на 100 тыс. населения.</t>
   </si>
   <si>
     <t>сумма</t>
@@ -168,11 +136,6 @@
   <si>
     <t>1. количество специалистов, осуществляющих надзор (ЕИАС?)
 2. Показатели потенциального риска причинения вреда здоровью объектов (или категория риска объектов в случае присваивания по приложению 2 приложения 1 ПП 1100), в отношении которых проводятся мероприятия из ЕИАС(РХС)</t>
-  </si>
-  <si>
-    <t>1. показатели заболеваемости отдельными заболеваниями
-2. количество пострадавших при пищевых отравлениях
-3. Показатели потенциального риска причинения вреда здоровью объектов (или категория риска объектов в случае присваивания по приложению 2 приложения 1 ПП 1100), в отношении которых проводятся мероприятия из ЕИАС(РХС)</t>
   </si>
   <si>
     <t>Нужен Модуль КНД</t>
@@ -279,9 +242,6 @@
     <t>Доля плановых КНМ, по результатам которых выдано предписание и применены меры админитсративного воздействия</t>
   </si>
   <si>
-    <t>Доля нереализованного риска</t>
-  </si>
-  <si>
     <t>доля плановых КНМ, проведенных в установленный период, с учетом продления/приостановления, за исключением проверок с невозможностью проведения</t>
   </si>
   <si>
@@ -299,6 +259,93 @@
   </si>
   <si>
     <t>доля мероприятий, документы которых своевременно составленны в период проведения мероприятий и по их результатам с учетом продления/приостановления КНМ за исключением мероприятий, проведение которых не представляется возможным</t>
+  </si>
+  <si>
+    <t>доля объектов в РХС, в отношении которых запланированы профилактические визиты без возможности отказа от их проведения</t>
+  </si>
+  <si>
+    <t>своевременность проведения плановых КНМ</t>
+  </si>
+  <si>
+    <t>% мероприятий с лабораторными исследованиями, имеющими отклонение от нормативов, являющееся фактом нарушения обязательных требований, указанных в качестве нарушений обязательных требований в акте проверки.
+Наличие отклонений в экспертном заключении, но отсутствие нарушений обязательных требований в акте со ссылкой на это заключение</t>
+  </si>
+  <si>
+    <t>включение в акт контрольного (надзорного) мероприятия нарушений по результатам лабораторных обследований</t>
+  </si>
+  <si>
+    <t>охват объектов запланированными плановыми КНМ</t>
+  </si>
+  <si>
+    <t>охват объектов  запланированными обязательными профвизитами, без возможности отказа от их проведения по ПП 336</t>
+  </si>
+  <si>
+    <t>своевременность составления документов, связанных с проведением мероприятия</t>
+  </si>
+  <si>
+    <t>охват поднадзорных объектов обязательными профилактическими визитами</t>
+  </si>
+  <si>
+    <t>темп роста согласованных прокуратурой плановых КНМ по сравнению с прошлым годом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нагрузка на специалистов, осуществляющих надзор
+</t>
+  </si>
+  <si>
+    <t>Доля нереализованного риска роста ключевого показателя: количество людей, заболевших инфекционными болезнями, за исключением хронических гепатитов, укусов, ослюнения животными, туберкулеза, сифилиса, гонококковой инфекции, ВИЧ-инфекции, острой респираторной вирусной инфекции, гриппа, пневмоний, на 100 тыс. населения</t>
+  </si>
+  <si>
+    <t>Доля нереализованного риска роста ключевого показателя: количество людей, заболевших паразитарными болезнями, на 100 тыс. населения;</t>
+  </si>
+  <si>
+    <t>Доля нереализованного риска роста ключевого показателя: количество людей, пострадавших при пищевых отравлениях, за исключением бытовых пищевых отравлений, на 100 тыс. населения.</t>
+  </si>
+  <si>
+    <t>1-(ключевой показателей государственного контроля (надзора), отражающих уровень устранения риска(Кл.показ)/сумма показателей потенциального риска причинения вреда здоровью объектов контроля)
+из контролируемых объектов, относящихся к категориям в сфере :
+-здравоохранения
+-детских лагерей
+-образования, организации детского образования, в том числе организации для детей-сирот
+-обращения с отходами
+-организации отдыха, культуры, спорта
+-промышенности, транспорта, связи
+-водоснабжения и водоотведения, коммунальных услуг, в том числе предоставления мест временного проживания
+-социальных услуг
+-иные виды деятельности</t>
+  </si>
+  <si>
+    <t>1-(ключевой показателей государственного контроля (надзора), отражающих уровень устранения риска(Кл.показ)/сумма показателей потенциального риска причинения вреда здоровью объектов контроля)
+из контролируемых объектов, относящихся к категориям в сфере :
+-детских лагерей
+-образования, организации детского образования, в том числе организации для детей-сирот
+-обращения с отходами
+-организации отдыха, культуры, спорта
+-водоснабжения и водоотведения, коммунальных услуг, в том числе предоставления мест временного проживания
+-социальных услуг
+-пищевой продукции
+-иные виды деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-(ключевой показателей государственного контроля (надзора), отражающих уровень устранения риска(Кл.показ)/сумма показателей потенциального риска причинения вреда здоровью объектов контроля)
+из контролируемых объектов, относящихся к категориям в сфере:
+-производства пищевой продукции, 
+-торговли пищевыми продуктами
+-общественного питания, в том числе организации детского питания
+-пищевой продукции как результата деятельности
+</t>
+  </si>
+  <si>
+    <t>1. количество людей, заболевших инфекционными болезнями, за исключением хронических гепатитов, укусов, ослюнения животными, туберкулеза, сифилиса, гонококковой инфекции, ВИЧ-инфекции, острой респираторной вирусной инфекции, гриппа, пневмоний, на 100 тыс. населения
+2. Показатели потенциального риска причинения вреда здоровью объектов (или категория риска объектов в случае присваивания по приложению 2 приложения 1 ПП 1100), в отношении которых проводятся мероприятия из ЕИАС(РХС)</t>
+  </si>
+  <si>
+    <t>1. количество людей, заболевших паразитарными болезнями, на 100 тыс. населения;
+2. Показатели потенциального риска причинения вреда здоровью объектов (или категория риска объектов в случае присваивания по приложению 2 приложения 1 ПП 1100), в отношении которых проводятся мероприятия из ЕИАС(РХС)</t>
+  </si>
+  <si>
+    <t>1. количество людей, пострадавших при пищевых отравлениях, за исключением бытовых пищевых отравлений, на 100 тыс. населения.
+2. Показатели потенциального риска причинения вреда здоровью объектов (или категория риска объектов в случае присваивания по приложению 2 приложения 1 ПП 1100), в отношении которых проводятся мероприятия из ЕИАС(РХС)</t>
   </si>
 </sst>
 </file>
@@ -405,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -427,9 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -726,18 +770,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:U30"/>
+  <dimension ref="B2:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="62.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="54.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
@@ -746,21 +790,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:21" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -770,128 +814,130 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="8"/>
       <c r="T3" s="1">
         <f>66</f>
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" ht="93.75" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T4" s="1">
         <f>SUM(M4,O4,Q4,)/3</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U4" s="1">
         <f>T4/$T$3</f>
+        <v>0.15151515151515152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>11</v>
+      </c>
+      <c r="T5" s="1">
+        <f>SUM(M5,O5,Q5,)/3</f>
+        <v>11</v>
+      </c>
+      <c r="U5" s="1">
+        <f>T5/$T$3</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    <row r="6" spans="2:21" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10</v>
-      </c>
-      <c r="O5" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>10</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" ref="T5:T14" si="0">SUM(M5,O5,Q5,)/3</f>
-        <v>10</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" ref="U5:U14" si="1">T5/$T$3</f>
-        <v>0.15151515151515152</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1">
         <v>3</v>
@@ -906,33 +952,33 @@
         <v>8</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="T6:T14" si="0">SUM(M6,O6,Q6,)/3</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U6:U14" si="1">T6/$T$3</f>
         <v>0.12626262626262627</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="206.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="234" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L7" s="1">
         <v>4</v>
@@ -955,23 +1001,25 @@
         <v>0.1313131313131313</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="235.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="5"/>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L8" s="1">
         <v>5</v>
@@ -994,25 +1042,25 @@
         <v>0.10606060606060606</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1">
         <v>6</v>
@@ -1038,22 +1086,22 @@
     <row r="10" spans="2:21" ht="93.75" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="7" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1">
         <v>7</v>
@@ -1079,20 +1127,22 @@
     <row r="11" spans="2:21" ht="93.75" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="H11" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1">
         <v>8</v>
@@ -1115,23 +1165,25 @@
         <v>6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="H12" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1">
         <v>9</v>
@@ -1157,23 +1209,23 @@
     <row r="13" spans="2:21" ht="187.5" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L13" s="1">
         <v>10</v>
@@ -1196,23 +1248,23 @@
         <v>3.0303030303030304E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" ht="393.75" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1">
         <v>11</v>
@@ -1235,253 +1287,277 @@
         <v>2.5252525252525252E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="375" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>71</v>
+      <c r="C15" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" ht="150" x14ac:dyDescent="0.25">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:21" ht="281.25" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>70</v>
+      <c r="C16" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="E17" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="112.5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="150" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="56.25" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="93.75" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="112.5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="9"/>
+      <c r="E26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="2">
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
         <f>1*POWER(10,-3)</f>
         <v>1E-3</v>
       </c>
-      <c r="H27" s="1">
-        <f>E27*2</f>
+      <c r="H28" s="1">
+        <f>E28*2</f>
         <v>2E-3</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I28" s="1">
         <f>1*POWER(10,-3)</f>
         <v>1E-3</v>
       </c>
-      <c r="J27" s="1">
-        <f>I27</f>
+      <c r="J28" s="1">
+        <f>I28</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
         <f>9*POWER(10,-4)</f>
         <v>9.0000000000000008E-4</v>
       </c>
-      <c r="H28" s="1">
-        <f>E28</f>
+      <c r="H29" s="1">
+        <f>E29</f>
         <v>9.0000000000000008E-4</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I29" s="1">
         <f>9*POWER(10,-4)</f>
         <v>9.0000000000000008E-4</v>
       </c>
-      <c r="J28" s="1">
-        <f>I28*2</f>
+      <c r="J29" s="1">
+        <f>I29*2</f>
         <v>1.8000000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
         <f>9*POWER(10,-7)</f>
         <v>8.9999999999999996E-7</v>
       </c>
-      <c r="H29" s="1">
-        <f>E29*2</f>
+      <c r="H30" s="1">
+        <f>E30*2</f>
         <v>1.7999999999999999E-6</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I30" s="1">
         <f>9*POWER(10,-5)</f>
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="J29" s="1">
-        <f>I29*2</f>
+      <c r="J30" s="1">
+        <f>I30*2</f>
         <v>1.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="1">
-        <f>SUM(H27:H29)</f>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1">
+        <f>SUM(H28:H30)</f>
         <v>2.9018000000000004E-3</v>
       </c>
-      <c r="J30" s="1">
-        <f t="shared" ref="J30" si="2">SUM(J27:J29)</f>
+      <c r="J31" s="1">
+        <f t="shared" ref="J31" si="2">SUM(J28:J30)</f>
         <v>2.9800000000000004E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" fitToHeight="3" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="3" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>